--- a/src/Paraply_betegnelser_eksklusion.xlsx
+++ b/src/Paraply_betegnelser_eksklusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\OneDrive - Gravercentret\Dokumenter\Python_projekter\kommune_investering\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64489B3A-CBF3-4A2E-9DE2-949886FFCD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398AA8EE-6209-4D10-862F-FABE41FAF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{F7E2561C-BF0C-4A4A-B9E8-B582AFC11F84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F7E2561C-BF0C-4A4A-B9E8-B582AFC11F84}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
-  <si>
-    <t>"Skat (EU's sortliste)",</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
     <t>Alkohol</t>
   </si>
@@ -384,13 +381,28 @@
   </si>
   <si>
     <t>Årsag ikke nævnt</t>
+  </si>
+  <si>
+    <t>Skat (EU's sortliste)</t>
+  </si>
+  <si>
+    <t>Israel/Palæstina</t>
+  </si>
+  <si>
+    <t>Rusland/Ukraine</t>
+  </si>
+  <si>
+    <t>Har tilknytning til Rusland</t>
+  </si>
+  <si>
+    <t>Våben og militær</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +413,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF242424"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
@@ -425,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -436,6 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C86CD4-3C28-49A9-8552-7A9C6AD0A3C0}">
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,898 +802,898 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1736,5 +1755,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Paraply_betegnelser_eksklusion.xlsx
+++ b/src/Paraply_betegnelser_eksklusion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
   <si>
     <t>Årsag_orginal</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Årsag ikke nævnt</t>
+  </si>
+  <si>
+    <t>Mange har frasolgt dette papir igen. Tjek om det stadig ejes.</t>
   </si>
   <si>
     <t>Har tilknytning til Rusland</t>
@@ -731,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -806,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -886,7 +889,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -894,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -934,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -942,7 +945,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -950,7 +953,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -966,7 +969,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -974,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -982,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -990,7 +993,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -998,7 +1001,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1006,7 +1009,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1014,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1030,7 +1033,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1038,7 +1041,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1086,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1094,7 +1097,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1102,7 +1105,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1126,7 +1129,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1158,7 +1161,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1174,7 +1177,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1182,7 +1185,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1214,7 +1217,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1254,7 +1257,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1278,7 +1281,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1286,7 +1289,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1294,7 +1297,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1302,7 +1305,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1326,7 +1329,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1358,7 +1361,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1366,7 +1369,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1382,7 +1385,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1398,7 +1401,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1406,7 +1409,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1414,7 +1417,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1422,7 +1425,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1430,7 +1433,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1446,7 +1449,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1454,7 +1457,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1470,7 +1473,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1478,7 +1481,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1486,7 +1489,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1494,7 +1497,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1502,7 +1505,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1526,7 +1529,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1534,7 +1537,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1542,7 +1545,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1550,7 +1553,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1558,7 +1561,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1566,7 +1569,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1574,7 +1577,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1590,7 +1593,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1606,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1614,7 +1617,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1622,7 +1625,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1630,7 +1633,15 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
